--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1873459.307872789</v>
+        <v>-1876046.819078365</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>104.8497339334904</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406815</v>
+        <v>48.08148421406807</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>279.8768650698327</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173974</v>
+        <v>11.79954938173971</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.62837588899008</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.95258203419925</v>
+        <v>92.33507763978304</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>76.20886191820654</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>48.07330050117295</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>230.6968828249247</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>69.97126019598923</v>
       </c>
       <c r="G7" t="n">
-        <v>3.314717112320071</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>41.44059585273717</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>328.4896310741221</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>165.6040273698191</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1579,16 +1579,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>211.1474991249032</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>148.0280580960835</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>245.9606760652097</v>
+        <v>245.432299078558</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1904,10 +1904,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>35.56815683447371</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>210.8399757234826</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>106.3048907942288</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,22 +2524,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572453992</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370326</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>45.16086499484888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.14931515453</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1355.087755676069</v>
+        <v>2349.539011300818</v>
       </c>
       <c r="C2" t="n">
-        <v>986.1252387356571</v>
+        <v>1980.576494360407</v>
       </c>
       <c r="D2" t="n">
-        <v>627.8595401289069</v>
+        <v>1622.310795753656</v>
       </c>
       <c r="E2" t="n">
-        <v>627.8595401289072</v>
+        <v>1236.522543155412</v>
       </c>
       <c r="F2" t="n">
-        <v>216.8736353392997</v>
+        <v>825.5366383658045</v>
       </c>
       <c r="G2" t="n">
-        <v>216.8736353392995</v>
+        <v>410.2937645803943</v>
       </c>
       <c r="H2" t="n">
         <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247274</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J2" t="n">
         <v>237.1001391730315</v>
@@ -4334,46 +4334,46 @@
         <v>549.6723906315692</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529735</v>
+        <v>974.3476699529742</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808269</v>
+        <v>1478.550181808271</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811714</v>
+        <v>1995.525025811715</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.35445007607</v>
+        <v>2470.354450076072</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259757</v>
+        <v>2841.109377259759</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3071.358140510238</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623637</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.708673672839</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614956</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="U2" t="n">
-        <v>2798.984896614956</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="V2" t="n">
-        <v>2467.922009271385</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="W2" t="n">
-        <v>2115.153354001271</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="X2" t="n">
-        <v>1741.687595740191</v>
+        <v>2632.242915411761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1741.687595740191</v>
+        <v>2349.539011300818</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1494.450283274067</v>
+        <v>931.3126773451369</v>
       </c>
       <c r="C3" t="n">
-        <v>1319.99725399294</v>
+        <v>756.8596480640099</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.062844331688</v>
+        <v>607.9252384027586</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.825389326233</v>
+        <v>448.6877833973032</v>
       </c>
       <c r="F3" t="n">
-        <v>865.2908313531178</v>
+        <v>302.1532254241882</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046179</v>
+        <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>637.4540000906345</v>
+        <v>74.31639416170481</v>
       </c>
       <c r="I3" t="n">
-        <v>625.5352633414025</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J3" t="n">
-        <v>710.7690176891825</v>
+        <v>147.6314117602529</v>
       </c>
       <c r="K3" t="n">
-        <v>934.6019044271156</v>
+        <v>505.1752167419855</v>
       </c>
       <c r="L3" t="n">
-        <v>1281.89538449531</v>
+        <v>852.4686968101796</v>
       </c>
       <c r="M3" t="n">
-        <v>1706.527363131965</v>
+        <v>1277.100675446835</v>
       </c>
       <c r="N3" t="n">
-        <v>2156.806731626993</v>
+        <v>1727.380043941864</v>
       </c>
       <c r="O3" t="n">
-        <v>2640.839321344195</v>
+        <v>2117.077901701059</v>
       </c>
       <c r="P3" t="n">
-        <v>2934.273142322695</v>
+        <v>2410.51172267956</v>
       </c>
       <c r="Q3" t="n">
-        <v>3080.506684337842</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="R3" t="n">
-        <v>3119.882870623637</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="S3" t="n">
-        <v>2988.75126865863</v>
+        <v>2425.6136627297</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.740730082329</v>
+        <v>2232.603124153399</v>
       </c>
       <c r="U3" t="n">
-        <v>2567.666884224566</v>
+        <v>2004.529278295636</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992823</v>
+        <v>1769.377170063893</v>
       </c>
       <c r="W3" t="n">
-        <v>2078.277419264622</v>
+        <v>1515.139813335692</v>
       </c>
       <c r="X3" t="n">
-        <v>1870.425919059089</v>
+        <v>1307.288313130159</v>
       </c>
       <c r="Y3" t="n">
-        <v>1662.665620294135</v>
+        <v>1099.528014365205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.3338403403796</v>
+        <v>2064.521383952035</v>
       </c>
       <c r="C4" t="n">
-        <v>62.39765741247265</v>
+        <v>1895.585201024128</v>
       </c>
       <c r="D4" t="n">
-        <v>62.39765741247265</v>
+        <v>1895.585201024128</v>
       </c>
       <c r="E4" t="n">
-        <v>62.39765741247265</v>
+        <v>1747.672107441735</v>
       </c>
       <c r="F4" t="n">
-        <v>62.39765741247274</v>
+        <v>1600.782159943825</v>
       </c>
       <c r="G4" t="n">
-        <v>62.39765741247274</v>
+        <v>1433.002877144987</v>
       </c>
       <c r="H4" t="n">
-        <v>62.39765741247274</v>
+        <v>1433.002877144987</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247274</v>
+        <v>1333.378255034896</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038606</v>
+        <v>1373.203697426283</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589865</v>
+        <v>1568.485969881409</v>
       </c>
       <c r="L4" t="n">
-        <v>602.92588227127</v>
+        <v>1873.906479893693</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583196</v>
+        <v>2206.318707680743</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468308</v>
+        <v>2536.261532090731</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090064</v>
+        <v>2825.000837712487</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077021</v>
+        <v>3048.546512699444</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001215</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="R4" t="n">
-        <v>1820.667341653539</v>
+        <v>3026.615115431939</v>
       </c>
       <c r="S4" t="n">
-        <v>1627.649209164824</v>
+        <v>3026.615115431939</v>
       </c>
       <c r="T4" t="n">
-        <v>1405.555960083695</v>
+        <v>3026.615115431939</v>
       </c>
       <c r="U4" t="n">
-        <v>1116.448923418054</v>
+        <v>3026.615115431939</v>
       </c>
       <c r="V4" t="n">
-        <v>861.7644352121667</v>
+        <v>2771.930627226052</v>
       </c>
       <c r="W4" t="n">
-        <v>861.7644352121667</v>
+        <v>2694.951978823822</v>
       </c>
       <c r="X4" t="n">
-        <v>633.7748843141494</v>
+        <v>2466.962427925805</v>
       </c>
       <c r="Y4" t="n">
-        <v>412.9823051706193</v>
+        <v>2246.169848782275</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V5" t="n">
-        <v>3092.578667240559</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>1952.040104645721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.925216725402</v>
+        <v>846.4655906179995</v>
       </c>
       <c r="C7" t="n">
-        <v>461.9890337974952</v>
+        <v>846.4655906179995</v>
       </c>
       <c r="D7" t="n">
-        <v>461.9890337974952</v>
+        <v>696.3489512056638</v>
       </c>
       <c r="E7" t="n">
-        <v>314.075940215102</v>
+        <v>548.4358576232706</v>
       </c>
       <c r="F7" t="n">
-        <v>167.1859927171917</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,19 +4729,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798489</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592602</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556418</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X7" t="n">
-        <v>812.5736815556418</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.5736815556418</v>
+        <v>846.4655906179995</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1642.972675199008</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.010158258596</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.010158258596</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2662.735226109921</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263129</v>
+        <v>2289.269467848841</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.572515263129</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1134.908724368016</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5042,10 +5042,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429801</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.61519755786</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,16 +5352,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
         <v>1307.627092998424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V16" t="n">
-        <v>1439.94072651611</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W16" t="n">
-        <v>1150.52355647915</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.52355647915</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,7 +5552,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>653.7474797708869</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.81129684298</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.81129684298</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>835.3959446011266</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>783.5579673960132</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.416181406744</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.999011369783</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X22" t="n">
-        <v>1185.999011369783</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.2064322262529</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380883</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101814</v>
+        <v>929.7309773356199</v>
       </c>
       <c r="D25" t="n">
-        <v>572.9069687101814</v>
+        <v>779.6143379232841</v>
       </c>
       <c r="E25" t="n">
-        <v>424.9938751277883</v>
+        <v>631.701244340891</v>
       </c>
       <c r="F25" t="n">
-        <v>424.9938751277883</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172275</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135314</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237297</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683281</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,16 +6598,16 @@
         <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7023,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345475</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7102,43 +7102,43 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942665</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,25 +7807,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795952</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>95.28760803839015</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>5.747744270113657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>191.4859279486838</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>106.3610735862209</v>
       </c>
     </row>
     <row r="3">
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.38249560558381</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>210.3141364183845</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>75.03697526434095</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>6.176967258618313</v>
+        <v>6.70534424526997</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>181.8372934928146</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>41.29766760034536</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>59.21924749804006</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>180.5336875992881</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194287</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26332,25 +26332,25 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="J2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023795</v>
+        <v>54832.77288023752</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503627</v>
+        <v>204074.6584503628</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594296</v>
+        <v>32664.34410594281</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363182</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12912.91945249303</v>
+        <v>12912.91945249299</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813258</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26430,16 +26430,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678122</v>
       </c>
       <c r="I4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678123</v>
       </c>
       <c r="K4" t="n">
         <v>18547.9475498747</v>
@@ -26451,10 +26451,10 @@
         <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
+        <v>18547.94754987469</v>
+      </c>
+      <c r="O4" t="n">
         <v>18547.94754987468</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18547.94754987465</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1304983.0713655</v>
+        <v>-1305377.892306654</v>
       </c>
       <c r="C6" t="n">
-        <v>-149880.6152667284</v>
+        <v>-149880.615266728</v>
       </c>
       <c r="D6" t="n">
-        <v>-95047.84238649039</v>
+        <v>-95047.84238649053</v>
       </c>
       <c r="E6" t="n">
-        <v>-336198.7549567927</v>
+        <v>-336233.4928822285</v>
       </c>
       <c r="F6" t="n">
-        <v>-10786.29314943752</v>
+        <v>-10821.0310748732</v>
       </c>
       <c r="G6" t="n">
-        <v>-10786.29314943754</v>
+        <v>-10821.03107487324</v>
       </c>
       <c r="H6" t="n">
-        <v>-10786.29314943757</v>
+        <v>-10821.03107487323</v>
       </c>
       <c r="I6" t="n">
-        <v>-10786.29314943751</v>
+        <v>-10821.03107487329</v>
       </c>
       <c r="J6" t="n">
-        <v>-214860.9515998003</v>
+        <v>-214895.6895252361</v>
       </c>
       <c r="K6" t="n">
-        <v>-51746.18627669756</v>
+        <v>-51746.18627669747</v>
       </c>
       <c r="L6" t="n">
-        <v>-19081.84217075461</v>
+        <v>-19081.84217075474</v>
       </c>
       <c r="M6" t="n">
         <v>-104136.8701062665</v>
       </c>
       <c r="N6" t="n">
-        <v>-19081.84217075461</v>
+        <v>-19081.84217075468</v>
       </c>
       <c r="O6" t="n">
-        <v>-19081.84217075459</v>
+        <v>-19081.84217075465</v>
       </c>
       <c r="P6" t="n">
-        <v>-38509.56016438642</v>
+        <v>-38509.56016438643</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559092</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303232</v>
+        <v>41.96894928303209</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559092</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638333</v>
+        <v>51.43073774638265</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559092</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638333</v>
+        <v>51.43073774638265</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559092</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638333</v>
+        <v>51.43073774638265</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>334.6605411623076</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>97.0553756452102</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>75.44978782694201</v>
       </c>
       <c r="G7" t="n">
-        <v>162.7110911467082</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>340.4897742195246</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>20.75133764329087</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>86.53361595400895</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28624,10 +28624,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578954</v>
+        <v>4.212292467578956</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359297</v>
+        <v>43.13914023359299</v>
       </c>
       <c r="I2" t="n">
         <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727968</v>
+        <v>535.819397972797</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774663</v>
+        <v>664.7313435774666</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477735</v>
+        <v>739.6416997477738</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212823</v>
+        <v>751.6098757212826</v>
       </c>
       <c r="O2" t="n">
-        <v>709.723892496794</v>
+        <v>709.7238924967943</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034385</v>
+        <v>605.7329222034388</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.8801982082672</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495551</v>
+        <v>95.98761460495554</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.43931027682689</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3369833974063164</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.76672328665289</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967534</v>
+        <v>77.59708346967537</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>212.9323280280608</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621703</v>
+        <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982519</v>
+        <v>489.3558747982521</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640946</v>
+        <v>571.0552244640949</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278061</v>
+        <v>586.1693570278063</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012073</v>
+        <v>536.2304442012075</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825127</v>
+        <v>430.3722063825129</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>287.6924225861696</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>41.86288515848089</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284279</v>
+        <v>9.084295504284285</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826818</v>
+        <v>56.82209903826821</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086571</v>
+        <v>280.9155404086573</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328806</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>267.070736350361</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431437</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>158.2189704478502</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738642</v>
+        <v>84.95831373738645</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>32.92864687314392</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964337</v>
+        <v>8.073272837964341</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>716.71805534327</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -32245,7 +32245,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>510.8679233250724</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934933</v>
+        <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278162</v>
+        <v>315.7295469278164</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074791</v>
+        <v>428.9649286074794</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205008</v>
+        <v>509.2954665205011</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.1968121246916</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751072</v>
+        <v>479.6256810751075</v>
       </c>
       <c r="P2" t="n">
-        <v>374.499926448169</v>
+        <v>374.4999264481692</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.5745083338178</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242458</v>
+        <v>49.0148789024247</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139402</v>
+        <v>86.0947013613941</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>361.1553585674066</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183777</v>
+        <v>350.8014950183779</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420763</v>
+        <v>428.9211905420765</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444728</v>
+        <v>454.827644944473</v>
       </c>
       <c r="O3" t="n">
-        <v>488.921807795153</v>
+        <v>393.6341997567631</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681824</v>
+        <v>296.3977989681827</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.710648500148</v>
+        <v>147.7106485001481</v>
       </c>
       <c r="R3" t="n">
-        <v>39.77392554120711</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726057</v>
+        <v>40.22771958726062</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617432</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>308.5055656689734</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>335.769927057626</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>333.2755802121092</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.8037121080373</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615571</v>
+        <v>72.05692719615577</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>574.5840214212516</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5262112417391</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
